--- a/test_data/case_data/登录接口_test.xlsx
+++ b/test_data/case_data/登录接口_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -16,39 +16,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
+  <si>
+    <t>is_run</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>database_type</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>ssh:mysql://</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>lochost</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>database_name</t>
+  </si>
+  <si>
+    <t>ch_node</t>
+  </si>
+  <si>
+    <t>用力编号</t>
+  </si>
+  <si>
+    <t>测试目的</t>
+  </si>
+  <si>
+    <t>测试接口</t>
+  </si>
+  <si>
+    <t>请求方法</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
   <si>
     <t>是否执行</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>数据库名称</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>数据库连接</t>
-  </si>
-  <si>
-    <t>ssh</t>
-  </si>
-  <si>
-    <t>用力编号</t>
-  </si>
-  <si>
-    <t>测试目的</t>
-  </si>
-  <si>
-    <t>测试接口</t>
-  </si>
-  <si>
-    <t>请求方法</t>
-  </si>
-  <si>
-    <t>请求数据</t>
   </si>
   <si>
     <t>是否通过</t>
@@ -194,8 +218,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -210,21 +234,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,8 +254,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,9 +278,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,14 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -292,7 +332,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,44 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,187 +385,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +576,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,11 +618,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,58 +671,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,15 +1178,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.775" customWidth="1"/>
+    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1187,6 +1211,38 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1201,13 +1257,13 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -1217,42 +1273,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1260,19 +1316,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -1280,39 +1336,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1320,19 +1376,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -1340,39 +1396,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -1380,19 +1436,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -1400,39 +1456,39 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -1440,19 +1496,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -1460,19 +1516,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -1480,19 +1536,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -1500,19 +1556,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
@@ -1533,9 +1589,9 @@
       <selection activeCell="C21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -1545,42 +1601,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1588,19 +1644,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -1608,39 +1664,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1648,19 +1704,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -1668,39 +1724,39 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -1708,19 +1764,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -1728,39 +1784,39 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -1768,19 +1824,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -1788,19 +1844,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -1808,19 +1864,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -1828,19 +1884,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
